--- a/medicine/Enfance/Enfants_de_Buchenwald/Enfants_de_Buchenwald.xlsx
+++ b/medicine/Enfance/Enfants_de_Buchenwald/Enfants_de_Buchenwald.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enfants de Buchenwald sont environ 1000 enfants juifs, dont certains âgés de 4 ans trouvés vivants par l'armée américaine lors de la libération du camp de concentration de Buchenwald, le 11 avril 1945.
 			Enfants rescapés de Buchenwald.
@@ -518,15 +530,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La libération de Buchenwald
-Le 11 avril 1945, l'armée américaine libère le camp de concentration de Buchenwald et libèrent 21 000 prisonniers, dont 4 000 juifs, dont 1 000 enfants, certains âgés de 4 ans[1],[2],[3],
-[4],[5],[6],[7],[8],[9].
-L'origine des enfants
-La plupart des enfants sont originaires de Pologne, de Hongrie, de Slovénie et de Ruthénie[2].  
-La prise en charge des enfants
-Les aumôniers militaires juifs américains, les rabbins Robert Marcus et Herschel Schacter arrivent sur les lieux un ou 2 jours plus tard et prennent les enfants en charge. Ils prennent contact avec l'Oeuvre de secours aux enfants (OSE) et la Jewish children's relief organization à Genève[2].
-Les enfants sont envoyés en France (427), en Suisse (280) et en Angleterre (250). Le 2 juin 1945, des représentants de l'OSE arrivent à Buchenwald et escortent, avec le rabbin Marcus, ceux qui vont en France[2].
-Le rabbin Schachter accompagne le groupe d'enfants qui va en Suisse. Ne trouvant pas des habits adéquats, les garçons mettent des uniformes des jeunesses hitlériennes[10]. À l'arrivèe en France, la population réagit avec colère en les voyant, ne se doutant pas qu'ils sont des rescapés. Pour éviter des confusions, les trains suivants portent l'inscription "KZ Buchenwald orphelins"[2].
+          <t>La libération de Buchenwald</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 avril 1945, l'armée américaine libère le camp de concentration de Buchenwald et libèrent 21 000 prisonniers, dont 4 000 juifs, dont 1 000 enfants, certains âgés de 4 ans
+.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enfants_de_Buchenwald</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfants_de_Buchenwald</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'origine des enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des enfants sont originaires de Pologne, de Hongrie, de Slovénie et de Ruthénie.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Enfants_de_Buchenwald</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfants_de_Buchenwald</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La prise en charge des enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aumôniers militaires juifs américains, les rabbins Robert Marcus et Herschel Schacter arrivent sur les lieux un ou 2 jours plus tard et prennent les enfants en charge. Ils prennent contact avec l'Oeuvre de secours aux enfants (OSE) et la Jewish children's relief organization à Genève.
+Les enfants sont envoyés en France (427), en Suisse (280) et en Angleterre (250). Le 2 juin 1945, des représentants de l'OSE arrivent à Buchenwald et escortent, avec le rabbin Marcus, ceux qui vont en France.
+Le rabbin Schachter accompagne le groupe d'enfants qui va en Suisse. Ne trouvant pas des habits adéquats, les garçons mettent des uniformes des jeunesses hitlériennes. À l'arrivèe en France, la population réagit avec colère en les voyant, ne se doutant pas qu'ils sont des rescapés. Pour éviter des confusions, les trains suivants portent l'inscription "KZ Buchenwald orphelins".
 </t>
         </is>
       </c>
